--- a/trainDog.xlsx
+++ b/trainDog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auddu\Desktop\bigdata\bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8266CE0-C119-4E41-8975-6DDB03BB6C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBE0504-906A-4FC3-8753-5658600C8096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2520" windowWidth="29040" windowHeight="15840" xr2:uid="{4C07043C-C85B-45D4-884E-8A3E65DCE735}"/>
   </bookViews>
@@ -710,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12985D2-CB81-4D86-9936-67FFC37D816E}">
-  <dimension ref="A1:N612"/>
+  <dimension ref="A1:J612"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
